--- a/Jogos_do_Dia/2023-04-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.64</v>
       </c>
       <c r="H3" t="n">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="N3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="G5" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>1.1</v>
@@ -983,10 +983,10 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="N5" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
         <v>1.1</v>
@@ -1093,10 +1093,10 @@
         <v>2.63</v>
       </c>
       <c r="M6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="N6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
         <v>1.2</v>
@@ -1245,13 +1245,13 @@
         <v>3.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
         <v>1.75</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>3.56</v>
+        <v>4.02</v>
       </c>
       <c r="H9" t="n">
-        <v>4.94</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="G10" t="n">
-        <v>3.92</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>5.63</v>
+        <v>6.05</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>4.14</v>
       </c>
       <c r="H11" t="n">
-        <v>4.29</v>
+        <v>4.66</v>
       </c>
       <c r="I11" t="n">
         <v>1.03</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="G12" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="H12" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="I12" t="n">
         <v>1.03</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.89</v>
+        <v>4.96</v>
       </c>
       <c r="G13" t="n">
-        <v>3.33</v>
+        <v>3.76</v>
       </c>
       <c r="H13" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>3.1</v>
       </c>
       <c r="M13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.09</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -1973,10 +1973,10 @@
         <v>3.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="N14" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="G15" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="H15" t="n">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="I15" t="n">
         <v>1.08</v>
@@ -2083,10 +2083,10 @@
         <v>2.7</v>
       </c>
       <c r="M15" t="n">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.5</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>4.48</v>
       </c>
       <c r="I17" t="n">
         <v>1.06</v>
@@ -2303,10 +2303,10 @@
         <v>3.2</v>
       </c>
       <c r="M17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>3.1</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="N18" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.36</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>2.65</v>
       </c>
       <c r="M19" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="N19" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="O19" t="n">
         <v>1.49</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>3.18</v>
       </c>
       <c r="H31" t="n">
-        <v>2.87</v>
+        <v>3.34</v>
       </c>
       <c r="I31" t="n">
         <v>1.08</v>
@@ -3843,10 +3843,10 @@
         <v>2.6</v>
       </c>
       <c r="M31" t="n">
-        <v>2.45</v>
+        <v>2.21</v>
       </c>
       <c r="N31" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="O31" t="n">
         <v>1.48</v>
@@ -3894,7 +3894,7 @@
         <v>2.92</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE31" t="n">
         <v>1.53</v>
@@ -3906,7 +3906,7 @@
         <v>2.55</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="32">
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G32" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3953,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N32" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-04-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
         <v>1.76</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="G3" t="n">
-        <v>4.64</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="N3" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -790,10 +790,10 @@
         <v>2.55</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="W3" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="X3" t="n">
         <v>1.49</v>
@@ -826,7 +826,7 @@
         <v>2.88</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4">
@@ -900,10 +900,10 @@
         <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
         <v>1.4</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.15</v>
+        <v>1.96</v>
       </c>
       <c r="G5" t="n">
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
         <v>1.1</v>
@@ -983,10 +983,10 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="N5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
         <v>1.1</v>
@@ -1093,10 +1093,10 @@
         <v>2.63</v>
       </c>
       <c r="M6" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="N6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1182,37 +1182,37 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>1.8</v>
@@ -1254,19 +1254,19 @@
         <v>2.47</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="8">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V8" t="n">
         <v>1.87</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>4.02</v>
+        <v>3.45</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="N9" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05</v>
+        <v>5.25</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="G11" t="n">
-        <v>4.14</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>4.66</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
         <v>1.03</v>
@@ -1643,10 +1643,10 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="N11" t="n">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.29</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G12" t="n">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="I12" t="n">
         <v>1.03</v>
@@ -1753,10 +1753,10 @@
         <v>4.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="N12" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.31</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.96</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>3.1</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="G14" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -1973,10 +1973,10 @@
         <v>3.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="N14" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.73</v>
+        <v>3.05</v>
       </c>
       <c r="G15" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="I15" t="n">
         <v>1.08</v>
@@ -2083,10 +2083,10 @@
         <v>2.7</v>
       </c>
       <c r="M15" t="n">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="N15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O15" t="n">
         <v>1.5</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="G17" t="n">
-        <v>3.74</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>4.48</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
         <v>1.06</v>
@@ -2303,10 +2303,10 @@
         <v>3.2</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="N18" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G19" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.28</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>2.65</v>
       </c>
       <c r="M19" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="N19" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.49</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="G31" t="n">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="H31" t="n">
-        <v>3.34</v>
+        <v>2.57</v>
       </c>
       <c r="I31" t="n">
         <v>1.08</v>
@@ -3843,10 +3843,10 @@
         <v>2.6</v>
       </c>
       <c r="M31" t="n">
-        <v>2.21</v>
+        <v>2.45</v>
       </c>
       <c r="N31" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.48</v>
@@ -3935,7 +3935,7 @@
         <v>1.6</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
         <v>5</v>
@@ -3953,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="N32" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
